--- a/Code/Results/Cases/Case_0_112/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_112/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.267974369725164</v>
+        <v>4.92241824879848</v>
       </c>
       <c r="D2">
-        <v>3.761875679944085</v>
+        <v>3.721592044944652</v>
       </c>
       <c r="E2">
-        <v>30.05884905897035</v>
+        <v>16.57821045982143</v>
       </c>
       <c r="F2">
-        <v>17.37933180250583</v>
+        <v>19.9246460903633</v>
       </c>
       <c r="G2">
-        <v>22.39455609222197</v>
+        <v>21.66912798817862</v>
       </c>
       <c r="H2">
-        <v>7.629496262472035</v>
+        <v>12.18510546842633</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.64071046922114</v>
+        <v>12.35959968634289</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.62868177785105</v>
+        <v>15.89550549347478</v>
       </c>
       <c r="O2">
-        <v>12.97722569403895</v>
+        <v>17.63542988083426</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.765212497572051</v>
+        <v>4.749659201147663</v>
       </c>
       <c r="D3">
-        <v>3.615145145138945</v>
+        <v>3.667893492910732</v>
       </c>
       <c r="E3">
-        <v>27.87644569030936</v>
+        <v>15.63267006056087</v>
       </c>
       <c r="F3">
-        <v>16.62580125392203</v>
+        <v>19.86376230223798</v>
       </c>
       <c r="G3">
-        <v>21.18893667440582</v>
+        <v>21.50257220312157</v>
       </c>
       <c r="H3">
-        <v>7.57089149500218</v>
+        <v>12.22228320492159</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.37010184223135</v>
+        <v>11.72597441288274</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.64792009478108</v>
+        <v>15.91620507709672</v>
       </c>
       <c r="O3">
-        <v>12.62705869035191</v>
+        <v>17.65944936333058</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.439256598909483</v>
+        <v>4.64179640417249</v>
       </c>
       <c r="D4">
-        <v>3.5214089829872</v>
+        <v>3.634126685222137</v>
       </c>
       <c r="E4">
-        <v>26.47258296043564</v>
+        <v>15.02678396108317</v>
       </c>
       <c r="F4">
-        <v>16.16764118576267</v>
+        <v>19.8336983412799</v>
       </c>
       <c r="G4">
-        <v>20.44882936111231</v>
+        <v>21.41053999929148</v>
       </c>
       <c r="H4">
-        <v>7.542694109319324</v>
+        <v>12.24785591972771</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.54683081722065</v>
+        <v>11.34561334909411</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.6634531743473</v>
+        <v>15.93064810771888</v>
       </c>
       <c r="O4">
-        <v>12.4249308228761</v>
+        <v>17.67989248757084</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.302050588658077</v>
+        <v>4.597470968712622</v>
       </c>
       <c r="D5">
-        <v>3.482329729996032</v>
+        <v>3.620175410842088</v>
       </c>
       <c r="E5">
-        <v>25.88411651510332</v>
+        <v>14.77378080391067</v>
       </c>
       <c r="F5">
-        <v>15.98232918336293</v>
+        <v>19.8232945068944</v>
       </c>
       <c r="G5">
-        <v>20.14768640196004</v>
+        <v>21.37564753659426</v>
       </c>
       <c r="H5">
-        <v>7.533086627021731</v>
+        <v>12.2589653029393</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.20052781211419</v>
+        <v>11.18692944380788</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.67069749151326</v>
+        <v>15.93697050032259</v>
       </c>
       <c r="O5">
-        <v>12.34580863437755</v>
+        <v>17.68964915694793</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.27900226100999</v>
+        <v>4.590090829282954</v>
       </c>
       <c r="D6">
-        <v>3.475788556258717</v>
+        <v>3.61784754491931</v>
       </c>
       <c r="E6">
-        <v>25.78540365238632</v>
+        <v>14.73141028150578</v>
       </c>
       <c r="F6">
-        <v>15.95165032056417</v>
+        <v>19.82167869363531</v>
       </c>
       <c r="G6">
-        <v>20.0977229920022</v>
+        <v>21.37001237239117</v>
       </c>
       <c r="H6">
-        <v>7.531602810600551</v>
+        <v>12.26085151700205</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.14237263589584</v>
+        <v>11.16036347901897</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.67195503507043</v>
+        <v>15.93804673181066</v>
       </c>
       <c r="O6">
-        <v>12.33286655158564</v>
+        <v>17.69135517202771</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.437423958228394</v>
+        <v>4.641200006461131</v>
       </c>
       <c r="D7">
-        <v>3.520885463915149</v>
+        <v>3.633939294764685</v>
       </c>
       <c r="E7">
-        <v>26.4647134360361</v>
+        <v>15.02339617695049</v>
       </c>
       <c r="F7">
-        <v>16.1651360093978</v>
+        <v>19.83355054394364</v>
       </c>
       <c r="G7">
-        <v>20.44476558866045</v>
+        <v>21.4100588086384</v>
       </c>
       <c r="H7">
-        <v>7.542557015369209</v>
+        <v>12.24800296069571</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.54220418324757</v>
+        <v>11.34348793718519</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.66354719838535</v>
+        <v>15.93073160425642</v>
       </c>
       <c r="O7">
-        <v>12.42385060554617</v>
+        <v>17.6800183046552</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.098181593007355</v>
+        <v>4.863267485941556</v>
       </c>
       <c r="D8">
-        <v>3.712058709374393</v>
+        <v>3.703247267862178</v>
       </c>
       <c r="E8">
-        <v>29.31940906866515</v>
+        <v>16.25758812642456</v>
       </c>
       <c r="F8">
-        <v>17.11872486893683</v>
+        <v>19.90213938944155</v>
       </c>
       <c r="G8">
-        <v>21.97905817296112</v>
+        <v>21.60960042532906</v>
       </c>
       <c r="H8">
-        <v>7.607629298897852</v>
+        <v>12.1973533147878</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.21156187062812</v>
+        <v>12.1299998548495</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.6345299295269</v>
+        <v>15.90228346204964</v>
       </c>
       <c r="O8">
-        <v>12.8538242771975</v>
+        <v>17.64252633488655</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.258699987452092</v>
+        <v>5.281413424422786</v>
       </c>
       <c r="D9">
-        <v>4.056730656911318</v>
+        <v>3.832464971792832</v>
       </c>
       <c r="E9">
-        <v>34.42651490222724</v>
+        <v>18.58006853416102</v>
       </c>
       <c r="F9">
-        <v>19.01467808758897</v>
+        <v>20.09427424376053</v>
       </c>
       <c r="G9">
-        <v>24.97425413182028</v>
+        <v>22.08010339957468</v>
       </c>
       <c r="H9">
-        <v>7.800197818784954</v>
+        <v>12.11990319785334</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.14304016801682</v>
+        <v>13.69613409843147</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.60814539506167</v>
+        <v>15.86021306791182</v>
       </c>
       <c r="O9">
-        <v>13.79836714221642</v>
+        <v>17.61443053411613</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.031364539223565</v>
+        <v>5.574328220641153</v>
       </c>
       <c r="D10">
-        <v>4.290068373515111</v>
+        <v>3.922832740311731</v>
       </c>
       <c r="E10">
-        <v>37.90335538221192</v>
+        <v>20.23196380190635</v>
       </c>
       <c r="F10">
-        <v>20.41284991281162</v>
+        <v>20.26979644459703</v>
       </c>
       <c r="G10">
-        <v>27.18220357617928</v>
+        <v>22.47096386762556</v>
       </c>
       <c r="H10">
-        <v>7.985414772900425</v>
+        <v>12.07645443294198</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.08956733172304</v>
+        <v>14.73094982919387</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.60880886229925</v>
+        <v>15.8376160406507</v>
       </c>
       <c r="O10">
-        <v>14.55287402219013</v>
+        <v>17.62175201076088</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.366074129148185</v>
+        <v>5.703819808638455</v>
       </c>
       <c r="D11">
-        <v>4.391660804470602</v>
+        <v>3.962855152797303</v>
       </c>
       <c r="E11">
-        <v>39.43123891091142</v>
+        <v>20.94100851959499</v>
       </c>
       <c r="F11">
-        <v>21.04858413314909</v>
+        <v>20.35688717753232</v>
       </c>
       <c r="G11">
-        <v>28.22505624203574</v>
+        <v>22.65781841546636</v>
       </c>
       <c r="H11">
-        <v>8.080001031777611</v>
+        <v>12.05963366089517</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.93071073285041</v>
+        <v>15.17620792165485</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.61379666462633</v>
+        <v>15.82913013426447</v>
       </c>
       <c r="O11">
-        <v>14.90905197915253</v>
+        <v>17.63119357179574</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.490456320903718</v>
+        <v>5.75226807154351</v>
       </c>
       <c r="D12">
-        <v>4.429460277547627</v>
+        <v>3.977846788960541</v>
       </c>
       <c r="E12">
-        <v>40.00263883520547</v>
+        <v>21.20344337234398</v>
       </c>
       <c r="F12">
-        <v>21.28920847895789</v>
+        <v>20.39088565523874</v>
       </c>
       <c r="G12">
-        <v>28.6178593325055</v>
+        <v>22.72980636120647</v>
       </c>
       <c r="H12">
-        <v>8.117368958577288</v>
+        <v>12.05368926184906</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.24292054095427</v>
+        <v>15.34113124409634</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.61638813909688</v>
+        <v>15.82617371066759</v>
       </c>
       <c r="O12">
-        <v>15.04578175675181</v>
+        <v>17.63564916535606</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.463772785160469</v>
+        <v>5.741860686793722</v>
       </c>
       <c r="D13">
-        <v>4.421349579802439</v>
+        <v>3.97462548461605</v>
       </c>
       <c r="E13">
-        <v>39.87988731700015</v>
+        <v>21.14719254057301</v>
       </c>
       <c r="F13">
-        <v>21.23739148836339</v>
+        <v>20.38351853535839</v>
       </c>
       <c r="G13">
-        <v>28.53335455055481</v>
+        <v>22.71424892413851</v>
       </c>
       <c r="H13">
-        <v>8.109251140404739</v>
+        <v>12.05495055211255</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.17596019417541</v>
+        <v>15.30577627677552</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.61579829312517</v>
+        <v>15.82679901376327</v>
       </c>
       <c r="O13">
-        <v>15.01625213414728</v>
+        <v>17.63465040928804</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.376354242299483</v>
+        <v>5.707817698672183</v>
       </c>
       <c r="D14">
-        <v>4.394784130608268</v>
+        <v>3.964091853304557</v>
       </c>
       <c r="E14">
-        <v>39.47838875741736</v>
+        <v>20.96272055263594</v>
       </c>
       <c r="F14">
-        <v>21.06838299199382</v>
+        <v>20.35966396646909</v>
       </c>
       <c r="G14">
-        <v>28.25741414339013</v>
+        <v>22.66371667172097</v>
       </c>
       <c r="H14">
-        <v>8.083043878151489</v>
+        <v>12.05913607834218</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.95652253305483</v>
+        <v>15.18985024084266</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.613995613889</v>
+        <v>15.8288817620525</v>
       </c>
       <c r="O14">
-        <v>14.9202636862432</v>
+        <v>17.63154248888423</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.322501326720777</v>
+        <v>5.686887586644592</v>
       </c>
       <c r="D15">
-        <v>4.37842414742547</v>
+        <v>3.957618120629455</v>
       </c>
       <c r="E15">
-        <v>39.23154220853913</v>
+        <v>20.84893728611592</v>
       </c>
       <c r="F15">
-        <v>20.96484412262178</v>
+        <v>20.34518435930422</v>
       </c>
       <c r="G15">
-        <v>28.08812075385791</v>
+        <v>22.63292224522514</v>
       </c>
       <c r="H15">
-        <v>8.067194956646532</v>
+        <v>12.06175526962762</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.82129060122725</v>
+        <v>15.11836161036336</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.612983811063</v>
+        <v>15.83019094772652</v>
       </c>
       <c r="O15">
-        <v>14.86170926559234</v>
+        <v>17.62975346439383</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.009156856970394</v>
+        <v>5.565785881767384</v>
       </c>
       <c r="D16">
-        <v>4.28333595852349</v>
+        <v>3.920194648691373</v>
       </c>
       <c r="E16">
-        <v>37.80246885114371</v>
+        <v>20.18477552880464</v>
       </c>
       <c r="F16">
-        <v>20.37129008505564</v>
+        <v>20.26424875836209</v>
       </c>
       <c r="G16">
-        <v>27.1137535923996</v>
+        <v>22.45892858435091</v>
       </c>
       <c r="H16">
-        <v>7.979446760539736</v>
+        <v>12.07761311941208</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.03370947934233</v>
+        <v>14.70133634773959</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.60857963107607</v>
+        <v>15.83820662884686</v>
       </c>
       <c r="O16">
-        <v>14.52985643170559</v>
+        <v>17.62125810464613</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.812665695434641</v>
+        <v>5.490496310756023</v>
       </c>
       <c r="D17">
-        <v>4.223823435670953</v>
+        <v>3.896952673398997</v>
       </c>
       <c r="E17">
-        <v>36.9123861161429</v>
+        <v>19.76649539098715</v>
       </c>
       <c r="F17">
-        <v>20.00702285106246</v>
+        <v>20.21643756270825</v>
       </c>
       <c r="G17">
-        <v>26.52212478117953</v>
+        <v>22.35445749088073</v>
       </c>
       <c r="H17">
-        <v>7.928308268712711</v>
+        <v>12.08809686815229</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.53923791023871</v>
+        <v>14.43896004807847</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.6070981531058</v>
+        <v>15.84358273025155</v>
       </c>
       <c r="O17">
-        <v>14.32958138602118</v>
+        <v>17.61761305122429</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.698066802227961</v>
+        <v>5.446840572663826</v>
       </c>
       <c r="D18">
-        <v>4.18916556272519</v>
+        <v>3.883482692799758</v>
       </c>
       <c r="E18">
-        <v>36.39533845654499</v>
+        <v>19.52191782575629</v>
       </c>
       <c r="F18">
-        <v>19.79747925846445</v>
+        <v>20.18962125427619</v>
       </c>
       <c r="G18">
-        <v>26.19614038571193</v>
+        <v>22.29522482664659</v>
       </c>
       <c r="H18">
-        <v>7.89986331886732</v>
+        <v>12.09440386762291</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.25065267419598</v>
+        <v>14.28565020288317</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.60668531235058</v>
+        <v>15.84684379899251</v>
       </c>
       <c r="O18">
-        <v>14.2156071690894</v>
+        <v>17.61609167943261</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.658992401318931</v>
+        <v>5.432000707442147</v>
       </c>
       <c r="D19">
-        <v>4.177358066334526</v>
+        <v>3.878904745714722</v>
       </c>
       <c r="E19">
-        <v>36.21938399676496</v>
+        <v>19.43842108141276</v>
       </c>
       <c r="F19">
-        <v>19.72652966593746</v>
+        <v>20.18065974508947</v>
       </c>
       <c r="G19">
-        <v>26.08566712797922</v>
+        <v>22.27531885693344</v>
       </c>
       <c r="H19">
-        <v>7.890396709386575</v>
+        <v>12.09658682963986</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.1522233360012</v>
+        <v>14.23333104506649</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.60662011648038</v>
+        <v>15.84797697314458</v>
       </c>
       <c r="O19">
-        <v>14.17722726437838</v>
+        <v>17.61567529159162</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.833745947512821</v>
+        <v>5.498547718435722</v>
       </c>
       <c r="D20">
-        <v>4.230203053420014</v>
+        <v>3.899437415904225</v>
       </c>
       <c r="E20">
-        <v>37.00766051587905</v>
+        <v>19.81143513448486</v>
       </c>
       <c r="F20">
-        <v>20.04580313405617</v>
+        <v>20.22145657088921</v>
       </c>
       <c r="G20">
-        <v>26.5824088478186</v>
+        <v>22.36549049386462</v>
       </c>
       <c r="H20">
-        <v>7.933651334692687</v>
+        <v>12.08695217024751</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.5923072705614</v>
+        <v>14.46713880807355</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.60721019141331</v>
+        <v>15.84299296342262</v>
       </c>
       <c r="O20">
-        <v>14.35077498641063</v>
+        <v>17.61794153150099</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.40209497931256</v>
+        <v>5.717833239024674</v>
       </c>
       <c r="D21">
-        <v>4.402605386678996</v>
+        <v>3.967190346591713</v>
       </c>
       <c r="E21">
-        <v>39.59650865795949</v>
+        <v>21.01706878256086</v>
       </c>
       <c r="F21">
-        <v>21.11802834516249</v>
+        <v>20.36664316554223</v>
       </c>
       <c r="G21">
-        <v>28.33852105797911</v>
+        <v>22.67852641583445</v>
       </c>
       <c r="H21">
-        <v>8.090699003539843</v>
+        <v>12.05789513189421</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.02114745502056</v>
+        <v>15.22400071083317</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.61450579721411</v>
+        <v>15.82826304072356</v>
       </c>
       <c r="O21">
-        <v>14.94840753408554</v>
+        <v>17.63243146273351</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.759782854594025</v>
+        <v>5.857707254008134</v>
       </c>
       <c r="D22">
-        <v>4.511361083912782</v>
+        <v>4.010511657539388</v>
       </c>
       <c r="E22">
-        <v>41.24694601287992</v>
+        <v>21.76968408122538</v>
       </c>
       <c r="F22">
-        <v>21.84080223655677</v>
+        <v>20.46745902074983</v>
       </c>
       <c r="G22">
-        <v>29.47797558462795</v>
+        <v>22.89024879663818</v>
       </c>
       <c r="H22">
-        <v>8.202404026116282</v>
+        <v>12.04138422709254</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.91821913647424</v>
+        <v>15.69716181167201</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.62338405774895</v>
+        <v>15.82013376817003</v>
       </c>
       <c r="O22">
-        <v>15.34980211642655</v>
+        <v>17.64703240700331</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.570120676441455</v>
+        <v>5.783382922893529</v>
       </c>
       <c r="D23">
-        <v>4.453679528752029</v>
+        <v>3.987480486394014</v>
       </c>
       <c r="E23">
-        <v>40.36967607366341</v>
+        <v>21.37122132907077</v>
       </c>
       <c r="F23">
-        <v>21.44454160828423</v>
+        <v>20.413117369447</v>
       </c>
       <c r="G23">
-        <v>28.87091719623115</v>
+        <v>22.77662001873079</v>
       </c>
       <c r="H23">
-        <v>8.141934237193603</v>
+        <v>12.04996893608937</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.44277412900329</v>
+        <v>15.44659881462118</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.6182596255125</v>
+        <v>15.82433579175919</v>
       </c>
       <c r="O23">
-        <v>15.13458048856623</v>
+        <v>17.63876988347226</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.824220657136085</v>
+        <v>5.494908828247616</v>
       </c>
       <c r="D24">
-        <v>4.227320207834318</v>
+        <v>3.898314399162723</v>
       </c>
       <c r="E24">
-        <v>36.96460359381136</v>
+        <v>19.79113065880053</v>
       </c>
       <c r="F24">
-        <v>20.02827094065794</v>
+        <v>20.21918538544858</v>
       </c>
       <c r="G24">
-        <v>26.5551567392302</v>
+        <v>22.36049988496996</v>
       </c>
       <c r="H24">
-        <v>7.931232764073545</v>
+        <v>12.08746881684811</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.56832803256102</v>
+        <v>14.45440687078082</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.60715817405137</v>
+        <v>15.84325906651093</v>
       </c>
       <c r="O24">
-        <v>14.34118972514256</v>
+        <v>17.61779123696106</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>7.958977193474781</v>
+        <v>5.170560129404429</v>
       </c>
       <c r="D25">
-        <v>3.966889128305747</v>
+        <v>3.79827651602311</v>
       </c>
       <c r="E25">
-        <v>33.09512596538847</v>
+        <v>17.93391073534845</v>
       </c>
       <c r="F25">
-        <v>18.50022647585777</v>
+        <v>20.03619601637149</v>
       </c>
       <c r="G25">
-        <v>24.16717750671982</v>
+        <v>21.94463942545535</v>
       </c>
       <c r="H25">
-        <v>7.74070989201035</v>
+        <v>12.13850114885837</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.38654905636916</v>
+        <v>13.29264100259348</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.61187091906979</v>
+        <v>15.87013086466877</v>
       </c>
       <c r="O25">
-        <v>13.53211574969021</v>
+        <v>17.61713650877477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_112/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_112/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.92241824879848</v>
+        <v>7.267974369725194</v>
       </c>
       <c r="D2">
-        <v>3.721592044944652</v>
+        <v>3.761875679944123</v>
       </c>
       <c r="E2">
-        <v>16.57821045982143</v>
+        <v>30.05884905897036</v>
       </c>
       <c r="F2">
-        <v>19.9246460903633</v>
+        <v>17.37933180250572</v>
       </c>
       <c r="G2">
-        <v>21.66912798817862</v>
+        <v>22.39455609222185</v>
       </c>
       <c r="H2">
-        <v>12.18510546842633</v>
+        <v>7.629496262471933</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.35959968634289</v>
+        <v>20.64071046922119</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.89550549347478</v>
+        <v>11.62868177785097</v>
       </c>
       <c r="O2">
-        <v>17.63542988083426</v>
+        <v>12.97722569403886</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749659201147663</v>
+        <v>6.765212497572107</v>
       </c>
       <c r="D3">
-        <v>3.667893492910732</v>
+        <v>3.615145145139041</v>
       </c>
       <c r="E3">
-        <v>15.63267006056087</v>
+        <v>27.87644569030936</v>
       </c>
       <c r="F3">
-        <v>19.86376230223798</v>
+        <v>16.62580125392195</v>
       </c>
       <c r="G3">
-        <v>21.50257220312157</v>
+        <v>21.18893667440578</v>
       </c>
       <c r="H3">
-        <v>12.22228320492159</v>
+        <v>7.570891495002168</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.72597441288274</v>
+        <v>19.37010184223132</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.91620507709672</v>
+        <v>11.64792009478105</v>
       </c>
       <c r="O3">
-        <v>17.65944936333058</v>
+        <v>12.62705869035186</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.64179640417249</v>
+        <v>6.439256598909539</v>
       </c>
       <c r="D4">
-        <v>3.634126685222137</v>
+        <v>3.521408982987293</v>
       </c>
       <c r="E4">
-        <v>15.02678396108317</v>
+        <v>26.47258296043569</v>
       </c>
       <c r="F4">
-        <v>19.8336983412799</v>
+        <v>16.16764118576261</v>
       </c>
       <c r="G4">
-        <v>21.41053999929148</v>
+        <v>20.44882936111231</v>
       </c>
       <c r="H4">
-        <v>12.24785591972771</v>
+        <v>7.542694109319223</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.34561334909411</v>
+        <v>18.5468308172207</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.93064810771888</v>
+        <v>11.66345317434727</v>
       </c>
       <c r="O4">
-        <v>17.67989248757084</v>
+        <v>12.42493082287606</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.597470968712622</v>
+        <v>6.302050588658085</v>
       </c>
       <c r="D5">
-        <v>3.620175410842088</v>
+        <v>3.482329729995897</v>
       </c>
       <c r="E5">
-        <v>14.77378080391067</v>
+        <v>25.88411651510331</v>
       </c>
       <c r="F5">
-        <v>19.8232945068944</v>
+        <v>15.98232918336285</v>
       </c>
       <c r="G5">
-        <v>21.37564753659426</v>
+        <v>20.14768640195992</v>
       </c>
       <c r="H5">
-        <v>12.2589653029393</v>
+        <v>7.533086627021674</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.18692944380788</v>
+        <v>18.20052781211423</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.93697050032259</v>
+        <v>11.6706974915132</v>
       </c>
       <c r="O5">
-        <v>17.68964915694793</v>
+        <v>12.34580863437739</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.590090829282954</v>
+        <v>6.279002261009984</v>
       </c>
       <c r="D6">
-        <v>3.61784754491931</v>
+        <v>3.475788556258783</v>
       </c>
       <c r="E6">
-        <v>14.73141028150578</v>
+        <v>25.78540365238631</v>
       </c>
       <c r="F6">
-        <v>19.82167869363531</v>
+        <v>15.95165032056432</v>
       </c>
       <c r="G6">
-        <v>21.37001237239117</v>
+        <v>20.09772299200236</v>
       </c>
       <c r="H6">
-        <v>12.26085151700205</v>
+        <v>7.531602810600617</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.16036347901897</v>
+        <v>18.1423726358958</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.93804673181066</v>
+        <v>11.67195503507048</v>
       </c>
       <c r="O6">
-        <v>17.69135517202771</v>
+        <v>12.33286655158577</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.641200006461131</v>
+        <v>6.43742395822852</v>
       </c>
       <c r="D7">
-        <v>3.633939294764685</v>
+        <v>3.520885463915346</v>
       </c>
       <c r="E7">
-        <v>15.02339617695049</v>
+        <v>26.46471343603606</v>
       </c>
       <c r="F7">
-        <v>19.83355054394364</v>
+        <v>16.16513600939772</v>
       </c>
       <c r="G7">
-        <v>21.4100588086384</v>
+        <v>20.44476558866041</v>
       </c>
       <c r="H7">
-        <v>12.24800296069571</v>
+        <v>7.542557015369167</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.34348793718519</v>
+        <v>18.54220418324759</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.93073160425642</v>
+        <v>11.66354719838532</v>
       </c>
       <c r="O7">
-        <v>17.6800183046552</v>
+        <v>12.42385060554612</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.863267485941556</v>
+        <v>7.098181593007475</v>
       </c>
       <c r="D8">
-        <v>3.703247267862178</v>
+        <v>3.712058709374526</v>
       </c>
       <c r="E8">
-        <v>16.25758812642456</v>
+        <v>29.31940906866512</v>
       </c>
       <c r="F8">
-        <v>19.90213938944155</v>
+        <v>17.1187248689369</v>
       </c>
       <c r="G8">
-        <v>21.60960042532906</v>
+        <v>21.9790581729612</v>
       </c>
       <c r="H8">
-        <v>12.1973533147878</v>
+        <v>7.607629298897893</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.1299998548495</v>
+        <v>20.21156187062807</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.90228346204964</v>
+        <v>11.63452992952695</v>
       </c>
       <c r="O8">
-        <v>17.64252633488655</v>
+        <v>12.8538242771976</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.281413424422786</v>
+        <v>8.258699987451905</v>
       </c>
       <c r="D9">
-        <v>3.832464971792832</v>
+        <v>4.056730656911429</v>
       </c>
       <c r="E9">
-        <v>18.58006853416102</v>
+        <v>34.42651490222719</v>
       </c>
       <c r="F9">
-        <v>20.09427424376053</v>
+        <v>19.01467808758894</v>
       </c>
       <c r="G9">
-        <v>22.08010339957468</v>
+        <v>24.97425413182032</v>
       </c>
       <c r="H9">
-        <v>12.11990319785334</v>
+        <v>7.800197818784929</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.69613409843147</v>
+        <v>23.14304016801693</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.86021306791182</v>
+        <v>11.60814539506173</v>
       </c>
       <c r="O9">
-        <v>17.61443053411613</v>
+        <v>13.79836714221641</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.574328220641153</v>
+        <v>9.031364539223524</v>
       </c>
       <c r="D10">
-        <v>3.922832740311731</v>
+        <v>4.290068373515111</v>
       </c>
       <c r="E10">
-        <v>20.23196380190635</v>
+        <v>37.90335538221188</v>
       </c>
       <c r="F10">
-        <v>20.26979644459703</v>
+        <v>20.41284991281158</v>
       </c>
       <c r="G10">
-        <v>22.47096386762556</v>
+        <v>27.18220357617931</v>
       </c>
       <c r="H10">
-        <v>12.07645443294198</v>
+        <v>7.985414772900376</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.73094982919387</v>
+        <v>25.0895673317231</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.8376160406507</v>
+        <v>11.60880886229919</v>
       </c>
       <c r="O10">
-        <v>17.62175201076088</v>
+        <v>14.55287402219007</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.703819808638455</v>
+        <v>9.3660741291481</v>
       </c>
       <c r="D11">
-        <v>3.962855152797303</v>
+        <v>4.391660804470661</v>
       </c>
       <c r="E11">
-        <v>20.94100851959499</v>
+        <v>39.4312389109114</v>
       </c>
       <c r="F11">
-        <v>20.35688717753232</v>
+        <v>21.04858413314903</v>
       </c>
       <c r="G11">
-        <v>22.65781841546636</v>
+        <v>28.22505624203567</v>
       </c>
       <c r="H11">
-        <v>12.05963366089517</v>
+        <v>8.080001031777547</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.17620792165485</v>
+        <v>25.93071073285046</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.82913013426447</v>
+        <v>11.61379666462632</v>
       </c>
       <c r="O11">
-        <v>17.63119357179574</v>
+        <v>14.90905197915248</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.75226807154351</v>
+        <v>9.490456320903794</v>
       </c>
       <c r="D12">
-        <v>3.977846788960541</v>
+        <v>4.429460277547766</v>
       </c>
       <c r="E12">
-        <v>21.20344337234398</v>
+        <v>40.00263883520562</v>
       </c>
       <c r="F12">
-        <v>20.39088565523874</v>
+        <v>21.28920847895789</v>
       </c>
       <c r="G12">
-        <v>22.72980636120647</v>
+        <v>28.61785933250555</v>
       </c>
       <c r="H12">
-        <v>12.05368926184906</v>
+        <v>8.117368958577256</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.34113124409634</v>
+        <v>26.24292054095426</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.82617371066759</v>
+        <v>11.6163881390968</v>
       </c>
       <c r="O12">
-        <v>17.63564916535606</v>
+        <v>15.04578175675179</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.741860686793722</v>
+        <v>9.463772785160478</v>
       </c>
       <c r="D13">
-        <v>3.97462548461605</v>
+        <v>4.421349579802475</v>
       </c>
       <c r="E13">
-        <v>21.14719254057301</v>
+        <v>39.87988731700015</v>
       </c>
       <c r="F13">
-        <v>20.38351853535839</v>
+        <v>21.2373914883634</v>
       </c>
       <c r="G13">
-        <v>22.71424892413851</v>
+        <v>28.53335455055484</v>
       </c>
       <c r="H13">
-        <v>12.05495055211255</v>
+        <v>8.109251140404719</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.30577627677552</v>
+        <v>26.17596019417548</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.82679901376327</v>
+        <v>11.61579829312517</v>
       </c>
       <c r="O13">
-        <v>17.63465040928804</v>
+        <v>15.01625213414727</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.707817698672183</v>
+        <v>9.376354242299557</v>
       </c>
       <c r="D14">
-        <v>3.964091853304557</v>
+        <v>4.394784130608278</v>
       </c>
       <c r="E14">
-        <v>20.96272055263594</v>
+        <v>39.47838875741738</v>
       </c>
       <c r="F14">
-        <v>20.35966396646909</v>
+        <v>21.06838299199381</v>
       </c>
       <c r="G14">
-        <v>22.66371667172097</v>
+        <v>28.25741414339018</v>
       </c>
       <c r="H14">
-        <v>12.05913607834218</v>
+        <v>8.083043878151472</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.18985024084266</v>
+        <v>25.9565225330549</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.8288817620525</v>
+        <v>11.613995613889</v>
       </c>
       <c r="O14">
-        <v>17.63154248888423</v>
+        <v>14.92026368624319</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.686887586644592</v>
+        <v>9.322501326720705</v>
       </c>
       <c r="D15">
-        <v>3.957618120629455</v>
+        <v>4.378424147425388</v>
       </c>
       <c r="E15">
-        <v>20.84893728611592</v>
+        <v>39.23154220853915</v>
       </c>
       <c r="F15">
-        <v>20.34518435930422</v>
+        <v>20.96484412262177</v>
       </c>
       <c r="G15">
-        <v>22.63292224522514</v>
+        <v>28.08812075385789</v>
       </c>
       <c r="H15">
-        <v>12.06175526962762</v>
+        <v>8.067194956646523</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.11836161036336</v>
+        <v>25.82129060122723</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.83019094772652</v>
+        <v>11.61298381106298</v>
       </c>
       <c r="O15">
-        <v>17.62975346439383</v>
+        <v>14.86170926559231</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.565785881767384</v>
+        <v>9.009156856970405</v>
       </c>
       <c r="D16">
-        <v>3.920194648691373</v>
+        <v>4.283335958523484</v>
       </c>
       <c r="E16">
-        <v>20.18477552880464</v>
+        <v>37.80246885114376</v>
       </c>
       <c r="F16">
-        <v>20.26424875836209</v>
+        <v>20.37129008505566</v>
       </c>
       <c r="G16">
-        <v>22.45892858435091</v>
+        <v>27.11375359239966</v>
       </c>
       <c r="H16">
-        <v>12.07761311941208</v>
+        <v>7.979446760539674</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.70133634773959</v>
+        <v>25.03370947934237</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.83820662884686</v>
+        <v>11.60857963107604</v>
       </c>
       <c r="O16">
-        <v>17.62125810464613</v>
+        <v>14.52985643170558</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.490496310756023</v>
+        <v>8.812665695434644</v>
       </c>
       <c r="D17">
-        <v>3.896952673398997</v>
+        <v>4.223823435670914</v>
       </c>
       <c r="E17">
-        <v>19.76649539098715</v>
+        <v>36.91238611614294</v>
       </c>
       <c r="F17">
-        <v>20.21643756270825</v>
+        <v>20.00702285106244</v>
       </c>
       <c r="G17">
-        <v>22.35445749088073</v>
+        <v>26.52212478117961</v>
       </c>
       <c r="H17">
-        <v>12.08809686815229</v>
+        <v>7.928308268712645</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.43896004807847</v>
+        <v>24.53923791023882</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.84358273025155</v>
+        <v>11.60709815310572</v>
       </c>
       <c r="O17">
-        <v>17.61761305122429</v>
+        <v>14.32958138602111</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.446840572663826</v>
+        <v>8.698066802227867</v>
       </c>
       <c r="D18">
-        <v>3.883482692799758</v>
+        <v>4.189165562725282</v>
       </c>
       <c r="E18">
-        <v>19.52191782575629</v>
+        <v>36.39533845654491</v>
       </c>
       <c r="F18">
-        <v>20.18962125427619</v>
+        <v>19.7974792584644</v>
       </c>
       <c r="G18">
-        <v>22.29522482664659</v>
+        <v>26.19614038571187</v>
       </c>
       <c r="H18">
-        <v>12.09440386762291</v>
+        <v>7.899863318867283</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.28565020288317</v>
+        <v>24.25065267419599</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.84684379899251</v>
+        <v>11.60668531235056</v>
       </c>
       <c r="O18">
-        <v>17.61609167943261</v>
+        <v>14.21560716908937</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.432000707442147</v>
+        <v>8.65899240131894</v>
       </c>
       <c r="D19">
-        <v>3.878904745714722</v>
+        <v>4.177358066334593</v>
       </c>
       <c r="E19">
-        <v>19.43842108141276</v>
+        <v>36.2193839967651</v>
       </c>
       <c r="F19">
-        <v>20.18065974508947</v>
+        <v>19.72652966593747</v>
       </c>
       <c r="G19">
-        <v>22.27531885693344</v>
+        <v>26.08566712797925</v>
       </c>
       <c r="H19">
-        <v>12.09658682963986</v>
+        <v>7.890396709386613</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.23333104506649</v>
+        <v>24.15222333600115</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.84797697314458</v>
+        <v>11.60662011648035</v>
       </c>
       <c r="O19">
-        <v>17.61567529159162</v>
+        <v>14.17722726437839</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.498547718435722</v>
+        <v>8.833745947512837</v>
       </c>
       <c r="D20">
-        <v>3.899437415904225</v>
+        <v>4.230203053420052</v>
       </c>
       <c r="E20">
-        <v>19.81143513448486</v>
+        <v>37.00766051587907</v>
       </c>
       <c r="F20">
-        <v>20.22145657088921</v>
+        <v>20.04580313405614</v>
       </c>
       <c r="G20">
-        <v>22.36549049386462</v>
+        <v>26.58240884781862</v>
       </c>
       <c r="H20">
-        <v>12.08695217024751</v>
+        <v>7.933651334692668</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.46713880807355</v>
+        <v>24.59230727056142</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.84299296342262</v>
+        <v>11.60721019141332</v>
       </c>
       <c r="O20">
-        <v>17.61794153150099</v>
+        <v>14.3507749864106</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.717833239024674</v>
+        <v>9.402094979312649</v>
       </c>
       <c r="D21">
-        <v>3.967190346591713</v>
+        <v>4.402605386678959</v>
       </c>
       <c r="E21">
-        <v>21.01706878256086</v>
+        <v>39.59650865795954</v>
       </c>
       <c r="F21">
-        <v>20.36664316554223</v>
+        <v>21.11802834516251</v>
       </c>
       <c r="G21">
-        <v>22.67852641583445</v>
+        <v>28.33852105797914</v>
       </c>
       <c r="H21">
-        <v>12.05789513189421</v>
+        <v>8.090699003539834</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.22400071083317</v>
+        <v>26.02114745502058</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.82826304072356</v>
+        <v>11.6145057972141</v>
       </c>
       <c r="O21">
-        <v>17.63243146273351</v>
+        <v>14.94840753408555</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.857707254008134</v>
+        <v>9.759782854594084</v>
       </c>
       <c r="D22">
-        <v>4.010511657539388</v>
+        <v>4.511361083912761</v>
       </c>
       <c r="E22">
-        <v>21.76968408122538</v>
+        <v>41.24694601287992</v>
       </c>
       <c r="F22">
-        <v>20.46745902074983</v>
+        <v>21.84080223655679</v>
       </c>
       <c r="G22">
-        <v>22.89024879663818</v>
+        <v>29.47797558462807</v>
       </c>
       <c r="H22">
-        <v>12.04138422709254</v>
+        <v>8.202404026116328</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.69716181167201</v>
+        <v>26.91821913647425</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.82013376817003</v>
+        <v>11.62338405774894</v>
       </c>
       <c r="O22">
-        <v>17.64703240700331</v>
+        <v>15.34980211642657</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.783382922893529</v>
+        <v>9.570120676441503</v>
       </c>
       <c r="D23">
-        <v>3.987480486394014</v>
+        <v>4.453679528752058</v>
       </c>
       <c r="E23">
-        <v>21.37122132907077</v>
+        <v>40.36967607366338</v>
       </c>
       <c r="F23">
-        <v>20.413117369447</v>
+        <v>21.44454160828423</v>
       </c>
       <c r="G23">
-        <v>22.77662001873079</v>
+        <v>28.87091719623112</v>
       </c>
       <c r="H23">
-        <v>12.04996893608937</v>
+        <v>8.141934237193587</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.44659881462118</v>
+        <v>26.4427741290033</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.82433579175919</v>
+        <v>11.6182596255125</v>
       </c>
       <c r="O23">
-        <v>17.63876988347226</v>
+        <v>15.13458048856622</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.494908828247616</v>
+        <v>8.824220657136078</v>
       </c>
       <c r="D24">
-        <v>3.898314399162723</v>
+        <v>4.227320207834416</v>
       </c>
       <c r="E24">
-        <v>19.79113065880053</v>
+        <v>36.96460359381133</v>
       </c>
       <c r="F24">
-        <v>20.21918538544858</v>
+        <v>20.02827094065792</v>
       </c>
       <c r="G24">
-        <v>22.36049988496996</v>
+        <v>26.55515673923024</v>
       </c>
       <c r="H24">
-        <v>12.08746881684811</v>
+        <v>7.931232764073545</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.45440687078082</v>
+        <v>24.56832803256109</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.84325906651093</v>
+        <v>11.60715817405135</v>
       </c>
       <c r="O24">
-        <v>17.61779123696106</v>
+        <v>14.34118972514252</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.170560129404429</v>
+        <v>7.958977193474766</v>
       </c>
       <c r="D25">
-        <v>3.79827651602311</v>
+        <v>3.966889128305705</v>
       </c>
       <c r="E25">
-        <v>17.93391073534845</v>
+        <v>33.09512596538846</v>
       </c>
       <c r="F25">
-        <v>20.03619601637149</v>
+        <v>18.50022647585777</v>
       </c>
       <c r="G25">
-        <v>21.94463942545535</v>
+        <v>24.16717750671984</v>
       </c>
       <c r="H25">
-        <v>12.13850114885837</v>
+        <v>7.740709892010357</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.29264100259348</v>
+        <v>22.38654905636921</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.87013086466877</v>
+        <v>11.61187091906978</v>
       </c>
       <c r="O25">
-        <v>17.61713650877477</v>
+        <v>13.5321157496902</v>
       </c>
     </row>
   </sheetData>
